--- a/lab-1/test-subjects.xlsx
+++ b/lab-1/test-subjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python\UPI-labs\lab-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70731C66-D4DE-4402-A18B-5C2894F7004A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E36668-1C6A-4DD3-9D2E-BB93173DBEA7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11550" windowHeight="15810" xr2:uid="{16B750C6-0DFA-4FEA-974F-C18FA2945A24}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Стрыбак Вячеслав Валерьевич</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Сердюков Матвей Романович</t>
+  </si>
+  <si>
+    <t>Оценка</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,7 +183,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C912517A-3969-400E-AD5A-112EF9FF433E}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +517,7 @@
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -530,12 +536,15 @@
       <c r="F1" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="12">
@@ -550,36 +559,53 @@
       <c r="F2" s="10">
         <v>64152</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="B3" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
+      <c r="D3" s="13">
+        <v>239344</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="10">
         <v>35934</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="B4" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="D4" s="13">
+        <v>239344</v>
+      </c>
       <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="10">
         <v>37070</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="12">
@@ -594,60 +620,91 @@
       <c r="F5" s="10">
         <v>64152</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="B6" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="13">
+        <v>240420</v>
+      </c>
       <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="10">
         <v>37071</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="B7" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="13">
+        <v>240420</v>
+      </c>
       <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="10">
         <v>40924</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="B8" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="13">
+        <v>240420</v>
+      </c>
       <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="10">
         <v>36808</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="B9" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="13">
+        <v>240420</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="10">
         <v>37354</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="12">
@@ -662,58 +719,82 @@
       <c r="F10" s="10">
         <v>36808</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="B11" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="13">
+        <v>241496</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="10">
         <v>35934</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="13">
+        <v>241496</v>
+      </c>
       <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="B13" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="13">
+        <v>241496</v>
+      </c>
       <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="10">
         <v>37204</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1"/>
@@ -868,19 +949,13 @@
       <c r="E37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="6">
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
     <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
     <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
